--- a/Dataset/Folds/Fold_3/Excel/68.xlsx
+++ b/Dataset/Folds/Fold_3/Excel/68.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="113">
   <si>
     <t>Doi</t>
   </si>
@@ -342,6 +342,56 @@
   </si>
   <si>
     <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                          Diego%Menezes%NULL%1,                          Filipe Romero Rebello%Moreira%NULL%1,                          Octávio Alcântara%Torres%NULL%1,                          Paula Luize Camargos%Fonseca%NULL%1,                          Rennan Garcias%Moreira%NULL%1,                          Hugo José%Alves%NULL%1,                          Vivian Ribeiro%Alves%NULL%1,                          Tânia Maria de Resende%Amaral%NULL%1,                          Adriano Neves%Coelho%NULL%1,                          Júlia Maria%Saraiva Duarte%NULL%1,                          Augusto Viana%da Rocha%NULL%1,                          Luiz Gonzaga Paula%de Almeida%NULL%1,                          João Locke Ferreira%de Araújo%NULL%1,                          Hilton Soares%de Oliveira%NULL%1,                          Nova Jersey Cláudio%de Oliveira%NULL%1,                          Camila%Zolini%NULL%1,                          Jôsy Hubner%de Sousa%NULL%1,                          Elizângela Gonçalves%de Souza%NULL%1,                          Rafael Marques%de Souza%NULL%1,                          Luciana de Lima%Ferreira%NULL%1,                          Alexandra%Lehmkuhl Gerber%NULL%1,                          Ana Paula de Campos%Guimarães%NULL%1,                          Paulo Henrique Silva%Maia%NULL%1,                          Fernanda Martins%Marim%NULL%1,                          Lucyene%Miguita%NULL%1,                          Cristiane Campos%Monteiro%NULL%1,                          Tuffi Saliba%Neto%NULL%1,                          Fabrícia Soares Freire%Pugêdo%NULL%1,                          Daniel Costa%Queiroz%NULL%1,                          Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                          Luciana Cunha%Resende-Moreira%NULL%1,                          Franciele Martins%Santos%NULL%1,                          Erika Fernanda Carlos%Souza%NULL%1,                          Carolina Moreira%Voloch%NULL%1,                          Ana Tereza%Vasconcelos%NULL%1,                          Renato Santana%de Aguiar%NULL%1,                          Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                           Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                           Sirwan M. A.%Al‐Jaf%NULL%2,                           Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                           Diego%Menezes%NULL%1,                           Filipe Romero Rebello%Moreira%NULL%1,                           Octávio Alcântara%Torres%NULL%1,                           Paula Luize Camargos%Fonseca%NULL%1,                           Rennan Garcias%Moreira%NULL%1,                           Hugo José%Alves%NULL%1,                           Vivian Ribeiro%Alves%NULL%1,                           Tânia Maria de Resende%Amaral%NULL%1,                           Adriano Neves%Coelho%NULL%1,                           Júlia Maria%Saraiva Duarte%NULL%1,                           Augusto Viana%da Rocha%NULL%1,                           Luiz Gonzaga Paula%de Almeida%NULL%1,                           João Locke Ferreira%de Araújo%NULL%1,                           Hilton Soares%de Oliveira%NULL%1,                           Nova Jersey Cláudio%de Oliveira%NULL%1,                           Camila%Zolini%NULL%1,                           Jôsy Hubner%de Sousa%NULL%1,                           Elizângela Gonçalves%de Souza%NULL%1,                           Rafael Marques%de Souza%NULL%1,                           Luciana de Lima%Ferreira%NULL%1,                           Alexandra%Lehmkuhl Gerber%NULL%1,                           Ana Paula de Campos%Guimarães%NULL%1,                           Paulo Henrique Silva%Maia%NULL%1,                           Fernanda Martins%Marim%NULL%1,                           Lucyene%Miguita%NULL%1,                           Cristiane Campos%Monteiro%NULL%1,                           Tuffi Saliba%Neto%NULL%1,                           Fabrícia Soares Freire%Pugêdo%NULL%1,                           Daniel Costa%Queiroz%NULL%1,                           Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                           Luciana Cunha%Resende-Moreira%NULL%1,                           Franciele Martins%Santos%NULL%1,                           Erika Fernanda Carlos%Souza%NULL%1,                           Carolina Moreira%Voloch%NULL%1,                           Ana Tereza%Vasconcelos%NULL%1,                           Renato Santana%de Aguiar%NULL%1,                           Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%1,                            Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1,                            Sirwan M. A.%Al‐Jaf%NULL%2,                            Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%1,                            Diego%Menezes%NULL%1,                            Filipe Romero Rebello%Moreira%NULL%1,                            Octávio Alcântara%Torres%NULL%1,                            Paula Luize Camargos%Fonseca%NULL%1,                            Rennan Garcias%Moreira%NULL%1,                            Hugo José%Alves%NULL%1,                            Vivian Ribeiro%Alves%NULL%1,                            Tânia Maria de Resende%Amaral%NULL%1,                            Adriano Neves%Coelho%NULL%1,                            Júlia Maria%Saraiva Duarte%NULL%1,                            Augusto Viana%da Rocha%NULL%1,                            Luiz Gonzaga Paula%de Almeida%NULL%1,                            João Locke Ferreira%de Araújo%NULL%1,                            Hilton Soares%de Oliveira%NULL%1,                            Nova Jersey Cláudio%de Oliveira%NULL%1,                            Camila%Zolini%NULL%1,                            Jôsy Hubner%de Sousa%NULL%1,                            Elizângela Gonçalves%de Souza%NULL%1,                            Rafael Marques%de Souza%NULL%1,                            Luciana de Lima%Ferreira%NULL%1,                            Alexandra%Lehmkuhl Gerber%NULL%1,                            Ana Paula de Campos%Guimarães%NULL%1,                            Paulo Henrique Silva%Maia%NULL%1,                            Fernanda Martins%Marim%NULL%1,                            Lucyene%Miguita%NULL%1,                            Cristiane Campos%Monteiro%NULL%1,                            Tuffi Saliba%Neto%NULL%1,                            Fabrícia Soares Freire%Pugêdo%NULL%1,                            Daniel Costa%Queiroz%NULL%1,                            Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1,                            Luciana Cunha%Resende-Moreira%NULL%1,                            Franciele Martins%Santos%NULL%1,                            Erika Fernanda Carlos%Souza%NULL%1,                            Carolina Moreira%Voloch%NULL%1,                            Ana Tereza%Vasconcelos%NULL%1,                            Renato Santana%de Aguiar%NULL%1,                            Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uncovering risk factors playing roles in the severity of Coronavirus disease 2019 (Covid‐19) are important for understanding pathoimmunology of the disease caused by severe acute respiratory syndrome Coronavirus 2 (SARS CoV‐2).
+ Genetic variations in innate immune genes have been found to be associated with Covid‐19 infections.
+ A single‐nucleotide polymorphism (SNP) in a promoter region of tumor necrosis factor alpha (TNF‐α) gene, TNF‐α −308G&amp;gt;A, increases expression of TNF‐α protein against infectious diseases leading to immune dysregulations and organ damage.
+ This study aims to discover associations between TNF‐α −308G&amp;gt;A SNP and Covid‐19 infection.
+ Polymerase chain reaction‐restriction fragment length polymorphism (PCR‐RFLP) was used for genotyping a general Kurdish population and Covid‐19 patients.
+ The homozygous mutant (AA) genotype was found to be rare in the current studied population.
+ Interestingly, the heterozygous (GA) genotype was significantly (p value = 0.0342) higher in the Covid‐19 patients than the general population.
+ This suggests that TNF‐α −308G&amp;gt;A SNP might be associated with Covid‐19 infections.
+ Further studies with larger sample sizes focusing on different ethnic populations are recommended.
+</t>
+  </si>
+  <si>
+    <t>[Hussein N.%Ali%NULL%0, Sherko S.%Niranji%sherko.subhan@garmian.edu.krd%1, Sirwan M. A.%Al‐Jaf%NULL%2, Sirwan M. A.%Al‐Jaf%NULL%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The COVID-19 pandemic has created an unprecedented need for epidemiological monitoring using diverse strategies.
+ We conducted a project combining prevalence, seroprevalence, and genomic surveillance approaches to describe the initial pandemic stages in Betim City, Brazil.
+ We collected 3239 subjects in a population-based age-, sex- and neighborhood-stratified, household, prospective; cross-sectional study divided into three surveys 21 days apart sampling the same geographical area.
+ In the first survey, overall prevalence (participants positive in serological or molecular tests) reached 0.46% (90% CI 0.12–0.80%), followed by 2.69% (90% CI 1.88–3.49%) in the second survey and 6.67% (90% CI 5.42–7.92%) in the third.
+ The underreporting reached 11, 19.6, and 20.4 times in each survey.
+ We observed increased odds to test positive in females compared to males (OR 1.88 95% CI 1.25–2.82), while the single best predictor for positivity was ageusia/anosmia (OR 8.12, 95% CI 4.72–13.98).
+ Thirty-five SARS-CoV-2 genomes were sequenced, of which 18 were classified as lineage B.
+1.1.28, while 17 were B.
+1.1.33. Multiple independent viral introductions were observed.
+ Integration of multiple epidemiological strategies was able to adequately describe COVID-19 dispersion in the city.
+ Presented results have helped local government authorities to guide pandemic management.
+</t>
+  </si>
+  <si>
+    <t>[Ana Valesca Fernandes Gilson%Silva%NULL%0, Diego%Menezes%NULL%1, Filipe Romero Rebello%Moreira%NULL%1, Octávio Alcântara%Torres%NULL%1, Paula Luize Camargos%Fonseca%NULL%1, Rennan Garcias%Moreira%NULL%1, Hugo José%Alves%NULL%1, Vivian Ribeiro%Alves%NULL%1, Tânia Maria de Resende%Amaral%NULL%1, Adriano Neves%Coelho%NULL%1, Júlia Maria%Saraiva Duarte%NULL%1, Augusto Viana%da Rocha%NULL%1, Luiz Gonzaga Paula%de Almeida%NULL%1, João Locke Ferreira%de Araújo%NULL%1, Hilton Soares%de Oliveira%NULL%1, Nova Jersey Cláudio%de Oliveira%NULL%1, Camila%Zolini%NULL%1, Jôsy Hubner%de Sousa%NULL%1, Elizângela Gonçalves%de Souza%NULL%1, Rafael Marques%de Souza%NULL%1, Luciana de Lima%Ferreira%NULL%1, Alexandra%Lehmkuhl Gerber%NULL%1, Ana Paula de Campos%Guimarães%NULL%1, Paulo Henrique Silva%Maia%NULL%1, Fernanda Martins%Marim%NULL%1, Lucyene%Miguita%NULL%1, Cristiane Campos%Monteiro%NULL%1, Tuffi Saliba%Neto%NULL%1, Fabrícia Soares Freire%Pugêdo%NULL%1, Daniel Costa%Queiroz%NULL%1, Damares Nigia Alborguetti Cuzzuol%Queiroz%NULL%1, Luciana Cunha%Resende-Moreira%NULL%1, Franciele Martins%Santos%NULL%1, Erika Fernanda Carlos%Souza%NULL%1, Carolina Moreira%Voloch%NULL%1, Ana Tereza%Vasconcelos%NULL%1, Renato Santana%de Aguiar%NULL%1, Renan Pedra%de Souza%NULL%1]</t>
+  </si>
+  <si>
+    <t>Frontiers Media S.A.</t>
   </si>
 </sst>
 </file>
@@ -667,28 +717,28 @@
         <v>44584.0</v>
       </c>
       <c r="C2" t="s">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>63</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I2" t="s">
         <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -702,10 +752,10 @@
         <v>17</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>107</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="F3" t="s">
         <v>20</v>
@@ -717,10 +767,10 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4">
@@ -734,10 +784,10 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
@@ -749,10 +799,10 @@
         <v>27</v>
       </c>
       <c r="I4" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
